--- a/Packages/cn.etetet.map/Luban/Config/Base/__tables__.xlsx
+++ b/Packages/cn.etetet.map/Luban/Config/Base/__tables__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11122"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.mapmanager/Luban/Config/Base/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.map/Luban/Config/Base/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA2794C-B429-8043-AEE7-F487B0E1CF28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF8C46C-6B2D-D141-907C-8194113B5914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>##var</t>
   </si>
@@ -127,6 +127,38 @@
   </si>
   <si>
     <t>../../../../cn.etetet.map/Luban/Config/Datas/Map.xlsx</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>ET.UnitConfigCategory</t>
+  </si>
+  <si>
+    <t>UnitConfig</t>
+  </si>
+  <si>
+    <t>UnitConfigCategory</t>
+  </si>
+  <si>
+    <t>MapUnit</t>
+  </si>
+  <si>
+    <t>ET.MapUnitConfigCategory</t>
+  </si>
+  <si>
+    <t>MapUnitConfig</t>
+  </si>
+  <si>
+    <t>MapUnitConfigCategory</t>
+  </si>
+  <si>
+    <t>../../../../cn.etetet.map/Luban/Config/Datas/Unit.xlsx</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>../../../../cn.etetet.map/Luban/Config/Datas/MapUnit.xlsx</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
@@ -134,7 +166,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,6 +189,13 @@
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -190,7 +229,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -198,6 +237,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -479,7 +521,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -630,10 +672,56 @@
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="B6" s="2"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="B7" s="2"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="8" spans="1:12">
       <c r="B8" s="2"/>
